--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,26 +8248,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,12 +9832,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11819,7 +11819,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -16020,14 +16020,10 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16035,11 +16031,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16053,7 +16049,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16068,10 +16064,14 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D328" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16079,11 +16079,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16208,22 +16208,26 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16237,7 +16241,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16252,26 +16256,22 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -18552,7 +18552,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18562,16 +18562,16 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F380" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18610,16 +18610,16 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -22808,7 +22808,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22875,7 +22875,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -10100,7 +10100,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,26 +8248,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,12 +9832,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11819,7 +11819,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -18552,7 +18552,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18562,16 +18562,16 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F380" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18610,16 +18610,16 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -22664,7 +22664,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22674,16 +22674,16 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22712,7 +22712,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22722,16 +22722,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22808,7 +22808,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22875,7 +22875,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,26 +8248,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,12 +9832,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11819,7 +11819,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -18552,7 +18552,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18562,16 +18562,16 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F380" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18610,16 +18610,16 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -22664,7 +22664,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22674,16 +22674,16 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22712,7 +22712,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22722,16 +22722,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22808,7 +22808,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22875,7 +22875,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,26 +8248,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,12 +9832,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11819,7 +11819,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16020,10 +16020,14 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D327" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16031,11 +16035,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16049,7 +16053,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16064,14 +16068,10 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16079,11 +16079,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16208,26 +16208,22 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16241,7 +16237,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16256,22 +16252,26 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -18552,7 +18552,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18562,16 +18562,16 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F380" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18610,16 +18610,16 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -8200,26 +8200,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,26 +8248,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -9799,11 +9799,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,12 +9832,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11819,7 +11819,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14564,12 +14564,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16020,14 +16020,10 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16035,11 +16031,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16053,7 +16049,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16068,10 +16064,14 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D328" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16079,11 +16079,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16208,22 +16208,26 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16237,7 +16241,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16252,26 +16256,22 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -18552,7 +18552,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18562,16 +18562,16 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F380" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18610,16 +18610,16 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8248,26 +8248,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9832,12 +9832,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18610,16 +18610,16 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18658,16 +18658,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -22712,7 +22712,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22722,16 +22722,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22760,7 +22760,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22770,16 +22770,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22875,7 +22875,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22923,7 +22923,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8248,26 +8248,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9832,12 +9832,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18610,16 +18610,16 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18658,16 +18658,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -22712,7 +22712,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22722,16 +22722,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22760,7 +22760,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22770,16 +22770,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22875,7 +22875,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22923,7 +22923,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8248,26 +8248,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9832,12 +9832,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18610,16 +18610,16 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18658,16 +18658,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -22712,7 +22712,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22722,16 +22722,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22760,7 +22760,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22770,16 +22770,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22875,7 +22875,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22923,7 +22923,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8248,26 +8248,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9832,12 +9832,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18610,16 +18610,16 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18658,16 +18658,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -22712,7 +22712,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22722,16 +22722,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22760,7 +22760,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22770,16 +22770,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22875,7 +22875,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22923,7 +22923,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>14/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8248,26 +8248,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9832,12 +9832,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18610,16 +18610,16 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18658,16 +18658,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -22712,7 +22712,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22722,16 +22722,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22760,7 +22760,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22770,16 +22770,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22875,7 +22875,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22923,7 +22923,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8248,26 +8248,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9832,12 +9832,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16068,10 +16068,14 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D328" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16079,11 +16083,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16097,7 +16101,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16112,14 +16116,10 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16127,11 +16127,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16256,26 +16256,22 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16289,7 +16285,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,22 +16300,26 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18610,16 +18610,16 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18658,16 +18658,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22875,7 +22875,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22923,7 +22923,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8248,26 +8248,26 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9832,12 +9832,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9847,11 +9847,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11867,7 +11867,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16068,14 +16068,10 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16083,11 +16079,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16101,7 +16097,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16116,10 +16112,14 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D329" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16127,11 +16127,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16256,22 +16256,26 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16285,7 +16289,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16300,26 +16304,22 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -18610,16 +18610,16 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18658,16 +18658,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22875,7 +22875,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22923,7 +22923,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,26 +8344,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11963,7 +11963,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18658,16 +18658,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18706,16 +18706,16 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -22760,7 +22760,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22770,16 +22770,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22808,7 +22808,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22818,16 +22818,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22923,7 +22923,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22952,7 +22952,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,26 +8344,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11963,7 +11963,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18658,16 +18658,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18706,16 +18706,16 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -22760,7 +22760,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22770,16 +22770,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22808,7 +22808,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22818,16 +22818,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22923,7 +22923,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22952,7 +22952,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>26/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,26 +8344,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11963,7 +11963,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16116,10 +16116,14 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D329" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16127,11 +16131,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16145,7 +16149,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16160,14 +16164,10 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16304,26 +16304,22 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16333,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16352,22 +16348,26 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18658,16 +18658,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18706,16 +18706,16 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22923,7 +22923,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22952,7 +22952,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,26 +8344,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11963,7 +11963,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16116,14 +16116,10 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16131,11 +16127,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16149,7 +16145,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16164,10 +16160,14 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D330" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16304,22 +16304,26 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16333,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16348,26 +16352,22 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18658,16 +18658,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18706,16 +18706,16 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22923,7 +22923,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22952,7 +22952,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,26 +8344,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11963,7 +11963,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16116,14 +16116,10 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16131,11 +16127,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16149,7 +16145,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16164,10 +16160,14 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D330" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16304,22 +16304,26 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16333,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16348,26 +16352,22 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18658,16 +18658,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18706,16 +18706,16 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22923,7 +22923,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22952,7 +22952,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,26 +8344,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11963,7 +11963,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -16116,10 +16116,14 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D329" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16127,11 +16131,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16145,7 +16149,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16160,14 +16164,10 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16304,26 +16304,22 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16333,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16352,22 +16348,26 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18658,16 +18658,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18706,16 +18706,16 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8296,26 +8296,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,26 +8344,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10903,11 +10903,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11915,7 +11915,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11963,7 +11963,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -16116,14 +16116,10 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16131,11 +16127,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16149,7 +16145,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16164,10 +16160,14 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D330" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16175,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16304,22 +16304,26 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16333,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16348,26 +16352,22 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -18658,16 +18658,16 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18706,16 +18706,16 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8344,26 +8344,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,26 +8392,26 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,12 +9976,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11963,7 +11963,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12011,7 +12011,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16164,10 +16164,14 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D330" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16175,11 +16179,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16193,7 +16197,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16208,14 +16212,10 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16352,26 +16352,22 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16385,7 +16381,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,22 +16396,26 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18706,16 +18706,16 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18744,7 +18744,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18754,16 +18754,16 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -22952,7 +22952,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23000,7 +23000,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23019,7 +23019,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8344,26 +8344,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,26 +8392,26 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,12 +9976,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11963,7 +11963,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12011,7 +12011,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16164,14 +16164,10 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16179,11 +16175,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16197,7 +16193,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16212,10 +16208,14 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D331" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16223,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16352,22 +16352,26 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16381,7 +16385,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16396,26 +16400,22 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18706,16 +18706,16 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18744,7 +18744,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18754,16 +18754,16 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -22952,7 +22952,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23000,7 +23000,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23019,7 +23019,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/06/2022</t>
+          <t>14/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8344,26 +8344,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,26 +8392,26 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,12 +9976,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11963,7 +11963,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12011,7 +12011,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18706,16 +18706,16 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18744,7 +18744,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18754,16 +18754,16 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -22808,7 +22808,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22818,16 +22818,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22866,16 +22866,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8344,26 +8344,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,26 +8392,26 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,12 +9976,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11963,7 +11963,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12011,7 +12011,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14695,11 +14695,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -18706,16 +18706,16 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -18744,7 +18744,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18754,16 +18754,16 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -22808,7 +22808,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22818,16 +22818,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22866,16 +22866,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8392,26 +8392,26 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,26 +8440,26 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9976,12 +9976,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,12 +10024,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12011,7 +12011,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12059,7 +12059,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -16212,10 +16212,14 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D331" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16223,11 +16227,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16241,7 +16245,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16256,14 +16260,10 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16271,11 +16271,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16400,26 +16400,22 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16433,7 +16429,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,22 +16444,26 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -18744,7 +18744,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18754,16 +18754,16 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18792,7 +18792,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18802,16 +18802,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -23000,7 +23000,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23019,7 +23019,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23048,7 +23048,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23067,7 +23067,7 @@
         </is>
       </c>
       <c r="F474" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8392,26 +8392,26 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,26 +8440,26 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9976,12 +9976,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,12 +10024,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12011,7 +12011,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12059,7 +12059,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -16212,14 +16212,10 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16227,11 +16223,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16245,7 +16241,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16260,10 +16256,14 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D332" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16271,11 +16271,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16400,22 +16400,26 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16429,7 +16433,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16444,26 +16448,22 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -18744,7 +18744,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18754,16 +18754,16 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18792,7 +18792,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18802,16 +18802,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -23000,7 +23000,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23019,7 +23019,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23048,7 +23048,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23067,7 +23067,7 @@
         </is>
       </c>
       <c r="F474" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Nevado Tres Cruces SpA</t>
         </is>
       </c>
       <c r="F27" t="n">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8392,26 +8392,26 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,26 +8440,26 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9976,12 +9976,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,12 +10024,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12011,7 +12011,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12059,7 +12059,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -18744,7 +18744,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18754,16 +18754,16 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18792,7 +18792,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18802,16 +18802,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22866,16 +22866,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22914,16 +22914,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8392,26 +8392,26 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,26 +8440,26 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9976,12 +9976,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,12 +10024,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12011,7 +12011,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12059,7 +12059,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -18744,7 +18744,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -18754,16 +18754,16 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -18777,7 +18777,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
@@ -18792,7 +18792,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18802,16 +18802,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22866,16 +22866,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22914,16 +22914,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8440,26 +8440,26 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,26 +8488,26 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10024,12 +10024,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,12 +10072,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12059,7 +12059,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -16260,10 +16260,14 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D332" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16271,11 +16275,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16289,7 +16293,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,14 +16308,10 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16319,11 +16319,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16448,26 +16448,22 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16477,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16496,22 +16492,26 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -18792,7 +18792,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18802,16 +18802,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18840,7 +18840,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18850,16 +18850,16 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -23048,7 +23048,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23067,7 +23067,7 @@
         </is>
       </c>
       <c r="F474" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23096,7 +23096,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23115,7 +23115,7 @@
         </is>
       </c>
       <c r="F475" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8440,26 +8440,26 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,26 +8488,26 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10024,12 +10024,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,12 +10072,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12059,7 +12059,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -16260,14 +16260,10 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16275,11 +16271,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16293,7 +16289,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16308,10 +16304,14 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D333" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16319,11 +16319,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16448,22 +16448,26 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16477,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16492,26 +16496,22 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -18792,7 +18792,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18802,16 +18802,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18840,7 +18840,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18850,16 +18850,16 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -23048,7 +23048,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23067,7 +23067,7 @@
         </is>
       </c>
       <c r="F474" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23096,7 +23096,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23115,7 +23115,7 @@
         </is>
       </c>
       <c r="F475" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8440,26 +8440,26 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,26 +8488,26 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10024,12 +10024,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,12 +10072,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12059,7 +12059,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -16260,10 +16260,14 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D332" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16271,11 +16275,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16289,7 +16293,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16304,14 +16308,10 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16319,11 +16319,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16448,26 +16448,22 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16477,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16496,22 +16492,26 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -18792,7 +18792,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18802,16 +18802,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18840,7 +18840,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18850,16 +18850,16 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8440,26 +8440,26 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,26 +8488,26 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -10024,12 +10024,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,12 +10072,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12059,7 +12059,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -16260,14 +16260,10 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16275,11 +16271,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16293,7 +16289,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16308,10 +16304,14 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D333" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16319,11 +16319,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16448,22 +16448,26 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16477,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16492,26 +16496,22 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16525,7 +16525,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -18792,7 +18792,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -18802,16 +18802,16 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -18840,7 +18840,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18850,16 +18850,16 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto Alba</t>
+          <t>AMPLIACIÓN NEGREIROS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Eléctrica Angamos S.p.A.</t>
+          <t>SCM COSAYACH YODO</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>450000</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/10/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157280115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157207174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN NEGREIROS</t>
+          <t>Proyecto Alba</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SCM COSAYACH YODO</t>
+          <t>Eléctrica Angamos S.p.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>450000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03/10/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157207174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157280115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8488,26 +8488,26 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,26 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,12 +10072,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,12 +10120,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -16308,10 +16308,14 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D333" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16319,11 +16323,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16341,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16352,14 +16356,10 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16496,26 +16496,22 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16529,7 +16525,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,22 +16540,26 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -18840,7 +18840,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18850,16 +18850,16 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18898,16 +18898,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8488,26 +8488,26 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,26 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,12 +10072,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,12 +10120,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -16308,14 +16308,10 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16323,11 +16319,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16341,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16356,10 +16352,14 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D334" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16496,22 +16496,26 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16525,7 +16529,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16540,26 +16544,22 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -18840,7 +18840,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18850,16 +18850,16 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18898,16 +18898,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>20/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8488,26 +8488,26 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,26 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,12 +10072,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,12 +10120,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -16308,10 +16308,14 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D333" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16319,11 +16323,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16337,7 +16341,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16352,14 +16356,10 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -18840,7 +18840,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18850,16 +18850,16 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18898,16 +18898,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -23096,7 +23096,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23115,7 +23115,7 @@
         </is>
       </c>
       <c r="F475" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23144,7 +23144,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23163,7 +23163,7 @@
         </is>
       </c>
       <c r="F476" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -8488,26 +8488,26 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,26 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,16 +8978,16 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10072,12 +10072,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,12 +10120,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -16308,14 +16308,10 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16323,11 +16319,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16341,7 +16337,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16356,10 +16352,14 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D334" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16367,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -18840,7 +18840,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -18850,16 +18850,16 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18898,16 +18898,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -23096,7 +23096,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23115,7 +23115,7 @@
         </is>
       </c>
       <c r="F475" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23144,7 +23144,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23163,7 +23163,7 @@
         </is>
       </c>
       <c r="F476" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8536,26 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10120,12 +10120,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,12 +10168,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -16356,14 +16356,10 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16371,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16389,7 +16385,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16404,10 +16400,14 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D335" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18898,16 +18898,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18946,16 +18946,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -23144,7 +23144,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23163,7 +23163,7 @@
         </is>
       </c>
       <c r="F476" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23192,7 +23192,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23211,7 +23211,7 @@
         </is>
       </c>
       <c r="F477" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8536,26 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10120,12 +10120,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,12 +10168,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -16356,10 +16356,14 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D334" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16367,11 +16371,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16385,7 +16389,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,14 +16404,10 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18898,16 +18898,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18946,16 +18946,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -23144,7 +23144,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23163,7 +23163,7 @@
         </is>
       </c>
       <c r="F476" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23192,7 +23192,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23211,7 +23211,7 @@
         </is>
       </c>
       <c r="F477" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/11/2022</t>
+          <t>15/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8536,26 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10120,12 +10120,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,12 +10168,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -16356,14 +16356,10 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16371,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16389,7 +16385,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16404,10 +16400,14 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D335" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18898,16 +18898,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18946,16 +18946,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -23144,7 +23144,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23163,7 +23163,7 @@
         </is>
       </c>
       <c r="F476" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23192,7 +23192,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23211,7 +23211,7 @@
         </is>
       </c>
       <c r="F477" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8536,26 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10120,12 +10120,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,12 +10168,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16356,10 +16356,14 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D334" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16367,11 +16371,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16385,7 +16389,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16400,14 +16404,10 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16544,26 +16544,22 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16577,7 +16573,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16592,22 +16588,26 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18898,16 +18898,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18946,16 +18946,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -23144,7 +23144,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23163,7 +23163,7 @@
         </is>
       </c>
       <c r="F476" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23192,7 +23192,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23211,7 +23211,7 @@
         </is>
       </c>
       <c r="F477" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8536,26 +8536,26 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,16 +9026,16 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10120,12 +10120,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,12 +10168,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12155,7 +12155,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -16356,14 +16356,10 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16371,11 +16367,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16389,7 +16385,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16404,10 +16400,14 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D335" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16415,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16544,22 +16544,26 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16573,7 +16577,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16588,26 +16592,22 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -18898,16 +18898,16 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18946,16 +18946,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -23144,7 +23144,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23163,7 +23163,7 @@
         </is>
       </c>
       <c r="F476" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23192,7 +23192,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23211,7 +23211,7 @@
         </is>
       </c>
       <c r="F477" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10168,12 +10168,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12251,7 +12251,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -16404,10 +16404,14 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D335" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16415,11 +16419,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16433,7 +16437,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,14 +16452,10 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16592,26 +16592,22 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16625,7 +16621,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,22 +16636,26 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18946,16 +18946,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -18994,16 +18994,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -23048,7 +23048,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23058,16 +23058,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23096,7 +23096,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23106,16 +23106,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23192,7 +23192,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23211,7 +23211,7 @@
         </is>
       </c>
       <c r="F477" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23240,7 +23240,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23259,7 +23259,7 @@
         </is>
       </c>
       <c r="F478" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10168,12 +10168,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12251,7 +12251,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -16404,14 +16404,10 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16419,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16437,7 +16433,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16452,10 +16448,14 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D336" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16592,22 +16592,26 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16621,7 +16625,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16636,26 +16640,22 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18946,16 +18946,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -18994,16 +18994,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -23048,7 +23048,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23058,16 +23058,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23096,7 +23096,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23106,16 +23106,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23192,7 +23192,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23211,7 +23211,7 @@
         </is>
       </c>
       <c r="F477" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23240,7 +23240,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23259,7 +23259,7 @@
         </is>
       </c>
       <c r="F478" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10168,12 +10168,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12251,7 +12251,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16404,10 +16404,14 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D335" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16415,11 +16419,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16433,7 +16437,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,14 +16452,10 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16592,26 +16592,22 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16625,7 +16621,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,22 +16636,26 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18946,16 +18946,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -18994,16 +18994,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -23192,7 +23192,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23211,7 +23211,7 @@
         </is>
       </c>
       <c r="F477" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23240,7 +23240,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23259,7 +23259,7 @@
         </is>
       </c>
       <c r="F478" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10168,12 +10168,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12251,7 +12251,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16404,14 +16404,10 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16419,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16437,7 +16433,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16452,10 +16448,14 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D336" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16592,22 +16592,26 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16621,7 +16625,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16636,26 +16640,22 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18946,16 +18946,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -18994,16 +18994,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -23192,7 +23192,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23211,7 +23211,7 @@
         </is>
       </c>
       <c r="F477" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23240,7 +23240,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23259,7 +23259,7 @@
         </is>
       </c>
       <c r="F478" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -16607,7 +16607,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F339" t="n">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10168,12 +10168,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12251,7 +12251,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16404,10 +16404,14 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D335" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16415,11 +16419,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16433,7 +16437,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16448,14 +16452,10 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16592,26 +16592,22 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16625,7 +16621,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,22 +16636,26 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18946,16 +18946,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -18994,16 +18994,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -23192,7 +23192,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23211,7 +23211,7 @@
         </is>
       </c>
       <c r="F477" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23240,7 +23240,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23259,7 +23259,7 @@
         </is>
       </c>
       <c r="F478" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8584,26 +8584,26 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,16 +9074,16 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10168,12 +10168,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12251,7 +12251,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -16404,14 +16404,10 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16419,11 +16415,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16437,7 +16433,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16452,10 +16448,14 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D336" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16463,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16592,22 +16592,26 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16621,7 +16625,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16636,26 +16640,22 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -18946,16 +18946,16 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -18994,16 +18994,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -23192,7 +23192,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23211,7 +23211,7 @@
         </is>
       </c>
       <c r="F477" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23240,7 +23240,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23259,7 +23259,7 @@
         </is>
       </c>
       <c r="F478" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12251,7 +12251,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16452,10 +16452,14 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D336" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16463,11 +16467,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16481,7 +16485,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16496,14 +16500,10 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16511,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16640,26 +16640,22 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16673,7 +16669,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,22 +16684,26 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -18994,16 +18994,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19032,7 +19032,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19042,16 +19042,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -23096,7 +23096,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23106,16 +23106,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23144,7 +23144,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23154,16 +23154,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23240,7 +23240,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23259,7 +23259,7 @@
         </is>
       </c>
       <c r="F478" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23288,7 +23288,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23307,7 +23307,7 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12251,7 +12251,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16452,14 +16452,10 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16467,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16485,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16500,10 +16496,14 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16511,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16640,22 +16640,26 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16669,7 +16673,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16684,26 +16688,22 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -18994,16 +18994,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19032,7 +19032,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19042,16 +19042,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -23096,7 +23096,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23106,16 +23106,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23144,7 +23144,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23154,16 +23154,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23240,7 +23240,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23259,7 +23259,7 @@
         </is>
       </c>
       <c r="F478" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23288,7 +23288,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23307,7 +23307,7 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/12/2022</t>
+          <t>09/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8632,26 +8632,26 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,16 +9122,16 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12251,7 +12251,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16452,14 +16452,10 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16467,11 +16463,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16485,7 +16481,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16500,10 +16496,14 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16511,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16640,22 +16640,26 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16669,7 +16673,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16684,26 +16688,22 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -18994,16 +18994,16 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -19032,7 +19032,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19042,16 +19042,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -23096,7 +23096,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23106,16 +23106,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>DUPONT CHILE S. A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23144,7 +23144,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA EL PEÑÓN ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23154,16 +23154,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DUPONT CHILE S. A.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23240,7 +23240,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23259,7 +23259,7 @@
         </is>
       </c>
       <c r="F478" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23288,7 +23288,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23307,7 +23307,7 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,12 +10312,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16500,10 +16500,14 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16511,11 +16515,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16529,7 +16533,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,14 +16548,10 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16559,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16688,26 +16688,22 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16721,7 +16717,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16736,22 +16732,26 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -19032,7 +19032,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19042,16 +19042,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19090,16 +19090,16 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -23288,7 +23288,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23307,7 +23307,7 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23336,7 +23336,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23355,7 +23355,7 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,12 +10312,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16500,14 +16500,10 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16515,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16533,7 +16529,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16548,10 +16544,14 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D338" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16559,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16688,22 +16688,26 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16717,7 +16721,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16732,26 +16736,22 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -19032,7 +19032,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19042,16 +19042,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19090,16 +19090,16 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -23288,7 +23288,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23307,7 +23307,7 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23336,7 +23336,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23355,7 +23355,7 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,12 +10312,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16500,10 +16500,14 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16511,11 +16515,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16529,7 +16533,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,14 +16548,10 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16559,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16688,26 +16688,22 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16721,7 +16717,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16736,22 +16732,26 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -19032,7 +19032,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19042,16 +19042,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19090,16 +19090,16 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -23288,7 +23288,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23307,7 +23307,7 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23336,7 +23336,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23355,7 +23355,7 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>07/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>E-CL S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,12 +10312,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16500,14 +16500,10 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16515,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16533,7 +16529,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16548,10 +16544,14 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D338" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16559,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16688,22 +16688,26 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16717,7 +16721,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16732,26 +16736,22 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -19032,7 +19032,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19042,16 +19042,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19090,16 +19090,16 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -23288,7 +23288,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23307,7 +23307,7 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23336,7 +23336,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23355,7 +23355,7 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7879,7 +7879,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -18711,7 +18711,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F383" t="n">
@@ -19287,7 +19287,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F473" t="n">
@@ -23111,7 +23111,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>E-CL S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F475" t="n">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,12 +10312,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16500,10 +16500,14 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16511,11 +16515,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16529,7 +16533,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16544,14 +16548,10 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16559,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16688,26 +16688,22 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16721,7 +16717,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16736,22 +16732,26 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -19032,7 +19032,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19042,16 +19042,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19090,16 +19090,16 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -23288,7 +23288,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23307,7 +23307,7 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23336,7 +23336,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23355,7 +23355,7 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8680,26 +8680,26 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,16 +9170,16 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,12 +10312,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -16500,14 +16500,10 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16515,11 +16511,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16533,7 +16529,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16548,10 +16544,14 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D338" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16559,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16688,22 +16688,26 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16717,7 +16721,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16732,26 +16736,22 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -19032,7 +19032,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19042,16 +19042,16 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19090,16 +19090,16 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -23288,7 +23288,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23307,7 +23307,7 @@
         </is>
       </c>
       <c r="F479" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23336,7 +23336,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23355,7 +23355,7 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10312,12 +10312,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,12 +10360,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16548,10 +16548,14 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D338" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16559,11 +16563,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16577,7 +16581,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16592,14 +16596,10 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16736,26 +16736,22 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16769,7 +16765,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16784,22 +16780,26 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19090,16 +19090,16 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19128,7 +19128,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19138,16 +19138,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -23336,7 +23336,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23355,7 +23355,7 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23384,7 +23384,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23403,7 +23403,7 @@
         </is>
       </c>
       <c r="F481" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8728,26 +8728,26 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,16 +9218,16 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10312,12 +10312,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,12 +10360,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12347,7 +12347,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -16548,14 +16548,10 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16563,11 +16559,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16581,7 +16577,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16596,10 +16592,14 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D339" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16607,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16736,22 +16736,26 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16765,7 +16769,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16780,26 +16784,22 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19090,16 +19090,16 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19128,7 +19128,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19138,16 +19138,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -23336,7 +23336,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23355,7 +23355,7 @@
         </is>
       </c>
       <c r="F480" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23384,7 +23384,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23403,7 +23403,7 @@
         </is>
       </c>
       <c r="F481" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/05/2023</t>
+          <t>06/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -10360,12 +10360,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,12 +10408,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16596,10 +16596,14 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D339" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16607,11 +16611,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16625,7 +16629,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,14 +16644,10 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16784,26 +16784,22 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16817,7 +16813,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16832,22 +16828,26 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -19128,7 +19128,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19138,16 +19138,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19186,16 +19186,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -23384,7 +23384,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23403,7 +23403,7 @@
         </is>
       </c>
       <c r="F481" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23432,7 +23432,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23451,7 +23451,7 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -10360,12 +10360,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,12 +10408,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16596,14 +16596,10 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16611,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16629,7 +16625,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16644,10 +16640,14 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16784,22 +16784,26 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16813,7 +16817,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16828,26 +16832,22 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -19128,7 +19128,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19138,16 +19138,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19186,16 +19186,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -23384,7 +23384,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23403,7 +23403,7 @@
         </is>
       </c>
       <c r="F481" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23432,7 +23432,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23451,7 +23451,7 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/06/2023</t>
+          <t>28/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -10360,12 +10360,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,12 +10408,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16596,10 +16596,14 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D339" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16607,11 +16611,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16625,7 +16629,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16640,14 +16644,10 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16784,26 +16784,22 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16817,7 +16813,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16832,22 +16828,26 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -19128,7 +19128,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19138,16 +19138,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19186,16 +19186,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -23384,7 +23384,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23403,7 +23403,7 @@
         </is>
       </c>
       <c r="F481" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23432,7 +23432,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23451,7 +23451,7 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8776,26 +8776,26 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,16 +9266,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -10360,12 +10360,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,12 +10408,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12395,7 +12395,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -16596,14 +16596,10 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16611,11 +16607,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16629,7 +16625,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16644,10 +16640,14 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16655,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16784,22 +16784,26 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16813,7 +16817,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16828,26 +16832,22 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -19128,7 +19128,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19138,16 +19138,16 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19186,16 +19186,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -23384,7 +23384,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23403,7 +23403,7 @@
         </is>
       </c>
       <c r="F481" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23432,7 +23432,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23451,7 +23451,7 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,26 +8872,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -10408,12 +10408,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,12 +10456,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16644,10 +16644,14 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16655,11 +16659,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16673,7 +16677,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,14 +16692,10 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16832,26 +16832,22 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16865,7 +16861,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16880,22 +16876,26 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19186,16 +19186,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19234,16 +19234,16 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -23432,7 +23432,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23451,7 +23451,7 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23480,7 +23480,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23499,7 +23499,7 @@
         </is>
       </c>
       <c r="F483" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,26 +8872,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -10408,12 +10408,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,12 +10456,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16644,14 +16644,10 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16659,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16677,7 +16673,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16692,10 +16688,14 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D341" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16832,22 +16832,26 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16861,7 +16865,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16876,26 +16880,22 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19186,16 +19186,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19234,16 +19234,16 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -23432,7 +23432,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23451,7 +23451,7 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23480,7 +23480,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23499,7 +23499,7 @@
         </is>
       </c>
       <c r="F483" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>08/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,26 +8872,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -10408,12 +10408,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,12 +10456,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16644,10 +16644,14 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16655,11 +16659,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16673,7 +16677,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16688,14 +16692,10 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16832,26 +16832,22 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16865,7 +16861,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16880,22 +16876,26 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19186,16 +19186,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19234,16 +19234,16 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -23432,7 +23432,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23451,7 +23451,7 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23480,7 +23480,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23499,7 +23499,7 @@
         </is>
       </c>
       <c r="F483" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8824,26 +8824,26 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,26 +8872,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,16 +9314,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -10408,12 +10408,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,12 +10456,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12443,7 +12443,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12452,12 +12452,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15175,11 +15175,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -16644,14 +16644,10 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16659,11 +16655,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16677,7 +16673,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16692,10 +16688,14 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D341" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16703,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16832,22 +16832,26 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16861,7 +16865,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16876,26 +16880,22 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19186,16 +19186,16 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19209,7 +19209,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19234,16 +19234,16 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -23432,7 +23432,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23451,7 +23451,7 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23480,7 +23480,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23499,7 +23499,7 @@
         </is>
       </c>
       <c r="F483" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8872,26 +8872,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,26 +8920,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10456,12 +10456,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,12 +10504,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16692,10 +16692,14 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D341" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16703,11 +16707,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16721,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16736,14 +16740,10 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16751,11 +16751,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16880,26 +16880,22 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16913,7 +16909,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16928,22 +16924,26 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19234,16 +19234,16 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19272,7 +19272,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19282,16 +19282,16 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -23480,7 +23480,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23499,7 +23499,7 @@
         </is>
       </c>
       <c r="F483" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23528,7 +23528,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23547,7 +23547,7 @@
         </is>
       </c>
       <c r="F484" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8872,26 +8872,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,26 +8920,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10456,12 +10456,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,12 +10504,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -16692,14 +16692,10 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16707,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16725,7 +16721,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,10 +16736,14 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D342" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16751,11 +16751,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16880,22 +16880,26 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16909,7 +16913,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16924,26 +16928,22 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19234,16 +19234,16 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19272,7 +19272,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19282,16 +19282,16 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -23480,7 +23480,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23499,7 +23499,7 @@
         </is>
       </c>
       <c r="F483" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23528,7 +23528,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23547,7 +23547,7 @@
         </is>
       </c>
       <c r="F484" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2500</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/08/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8872,26 +8872,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,26 +8920,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>8500</v>
+        <v>210</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10456,12 +10456,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,12 +10504,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -16692,14 +16692,10 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16707,11 +16703,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16725,7 +16721,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16740,10 +16736,14 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D342" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16751,11 +16751,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16880,22 +16880,26 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16909,7 +16913,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16924,26 +16928,22 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19234,16 +19234,16 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19272,7 +19272,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19282,16 +19282,16 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -23480,7 +23480,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23499,7 +23499,7 @@
         </is>
       </c>
       <c r="F483" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23528,7 +23528,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23547,7 +23547,7 @@
         </is>
       </c>
       <c r="F484" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Terminal Mejillones Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128857940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128844502&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Actualización de Emisiones Atmosféricas</t>
+          <t>Planta de cal hidratada asociada a cumplimiento norma emisión para SO2</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Gasatacama Chile S.A.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>175000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128817769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128816891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8872,26 +8872,26 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,26 +8920,26 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,16 +9362,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Moly Cop Chile S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>210</v>
+        <v>8500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Instalación de Horno de Tratamiento Térmico en Planta Mejillones</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,16 +9410,16 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Moly Cop Chile S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7885459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -10456,12 +10456,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Patio de Carga de Camiones de GNL Mejillones</t>
+          <t>Terminal Marítimo Flotante de GNL</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
+          <t>PROGAS S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>2500</v>
+        <v>350000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,12 +10504,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Terminal Marítimo Flotante de GNL</t>
+          <t>Patio de Carga de Camiones de GNL Mejillones</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>PROGAS S.A.</t>
+          <t>SOCIEDAD GNL MEJILLONES S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>350000</v>
+        <v>2500</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6958071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6975800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
+          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>98990</v>
+        <v>10000</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Profundización Sitios 2 y 3, Terminal 1 Complejo Portuario Mejillones, II Región</t>
+          <t>MODIFICACIÓN RCA Nº 76/08 MUELLE MECANIZADO DE DESEMBARQUE DE GRANELES SÓLIDOS</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>10000</v>
+        <v>98990</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5978050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5974082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>4000</v>
+        <v>4050</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -16692,10 +16692,14 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr"/>
+          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D341" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16703,11 +16707,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Transportes Karl y Compañía Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16721,7 +16725,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16736,14 +16740,10 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>"Transporte Terrestre de Acido Sulfúrico en la II Región" (e-seia)</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>TERMINAL PARA CARGA Y DESCARGA DE COMBUSTIBLE MEJILLONES</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
           <t>Segunda</t>
@@ -16751,11 +16751,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Karl y Compañía Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4160994&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4168730&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16880,26 +16880,22 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16913,7 +16909,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16928,22 +16924,26 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Terminal para Carga y Descarga de Combustibles Mejillones</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr"/>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4079649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19234,16 +19234,16 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Puerto de Mejillones S.A.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19272,7 +19272,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Modificación de Instalaciones Portuarias Terrestres para Almacenamiento y Embarque de Mineral de Hierro, Mejillones, II Región (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19282,16 +19282,16 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Puerto de Mejillones S.A.</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -23480,7 +23480,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23499,7 +23499,7 @@
         </is>
       </c>
       <c r="F483" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23528,7 +23528,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA MINA REFUGIO (COMPAÑÍA MINERA MARICUNGA) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE ANTOFAGASTA HASTA EL PROYECTO MINERO DE ORO COIPA (MINERA MANTOS DE ORO) ALTERNATIVA PUERTO DE MEJILLONES (e-seia)</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23547,7 +23547,7 @@
         </is>
       </c>
       <c r="F484" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790280&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1666032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Mejillones.xlsx
+++ b/data/Mejillones.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Construcción y Operación de tres estanques adicionales para el almacenamiento de Ácido Sulfúrico en Terminal Mejillones</t>
+          <t>Actualización de Emisiones Atmosféricas</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Terminal Mejillones Limitada</t>
+          <t>Gasatacama Chile S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <i